--- a/Booom2024-7/Config/Datas/__tables__.xlsx
+++ b/Booom2024-7/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\dango\Desktop\Projects\Games\UnityGamejam2024\AdventureGame3D\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\XueJiaGu\Booom2024-7\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CB5EF-5436-47CC-B903-A1670FD82AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440263DC-2545-4424-B68A-488DF2E01F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2295" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="7770" windowWidth="19770" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -101,54 +101,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>demo.TbCustomer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbNeta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.Customer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.Neta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.Shari</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neta.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shari.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.Source</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbShari</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbSource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,19 +447,19 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.4140625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -574,7 +526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -597,63 +549,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
